--- a/Document/학위논문/Chart.xlsx
+++ b/Document/학위논문/Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\common\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IBPC\Document\학위논문\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D1EBFF-7714-4896-B286-50621BDF1412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F589A-A954-4D6F-91C9-909CB1B09D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="855" windowWidth="17835" windowHeight="11385" xr2:uid="{7F76EA4C-922D-4456-A53C-495161C0780B}"/>
+    <workbookView xWindow="-26550" yWindow="885" windowWidth="24990" windowHeight="13965" xr2:uid="{7F76EA4C-922D-4456-A53C-495161C0780B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,22 @@
   </si>
   <si>
     <t>x-axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Octree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,6 +1763,1650 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>CDT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> &amp; Octree Collision Bunny Mesh Result</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA45-4AE7-9599-689BAC89F52B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Octree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA45-4AE7-9599-689BAC89F52B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="189574768"/>
+        <c:axId val="185983536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="189574768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Particle Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185983536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185983536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189574768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+          <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1350" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CDT &amp; Octree Collision Dragon Mesh Result</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1350">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$12:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$12:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3825-4C53-A775-DE49821C2825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Octree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$12:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$12:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3825-4C53-A775-DE49821C2825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="746568224"/>
+        <c:axId val="746568880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="746568224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Particle Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746568880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="746568880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746568224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+          <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X-axis movement experimental result</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CDT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61AD-41A9-A5A6-9879DFF6CA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Octree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61AD-41A9-A5A6-9879DFF6CA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="200488904"/>
+        <c:axId val="200491528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="200488904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Particle Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200491528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200491528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200488904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+          <a:ea typeface="휴먼명조" panose="02010504000101010101" pitchFamily="2" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1867,6 +3527,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2900,6 +4680,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3520,6 +6848,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43703</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FF18B5-9642-470A-8424-F72C550FBDFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200585</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4586F7-A53A-4A8C-BD59-66C74729CF1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>21290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EF88C1-20BC-4EF3-8E60-94B3B835F617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3825,22 +7261,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92D1C35-99AD-4960-AE0B-F0B1D4289995}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="18" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -3848,8 +7287,11 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>50000</v>
       </c>
@@ -3859,8 +7301,14 @@
       <c r="C3" s="1">
         <v>13</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100000</v>
       </c>
@@ -3870,8 +7318,17 @@
       <c r="C4" s="1">
         <v>31</v>
       </c>
+      <c r="P4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>13</v>
+      </c>
+      <c r="R4" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>150000</v>
       </c>
@@ -3881,8 +7338,17 @@
       <c r="C5" s="1">
         <v>50</v>
       </c>
+      <c r="P5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1">
+        <v>195</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>200000</v>
       </c>
@@ -3892,25 +7358,43 @@
       <c r="C6" s="1">
         <v>70</v>
       </c>
+      <c r="P6" s="1">
+        <v>150000</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>50</v>
+      </c>
+      <c r="R6" s="1">
+        <v>284</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
+      <c r="P7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>70</v>
+      </c>
+      <c r="R7" s="1">
+        <v>413</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -3918,8 +7402,11 @@
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="Q10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>50000</v>
       </c>
@@ -3929,8 +7416,14 @@
       <c r="C11" s="1">
         <v>14</v>
       </c>
+      <c r="Q11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100000</v>
       </c>
@@ -3940,8 +7433,17 @@
       <c r="C12" s="1">
         <v>34</v>
       </c>
+      <c r="P12" s="1">
+        <v>50000</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>14</v>
+      </c>
+      <c r="R12" s="1">
+        <v>104</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>150000</v>
       </c>
@@ -3951,8 +7453,17 @@
       <c r="C13" s="1">
         <v>56</v>
       </c>
+      <c r="P13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>34</v>
+      </c>
+      <c r="R13" s="1">
+        <v>194</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>200000</v>
       </c>
@@ -3962,8 +7473,28 @@
       <c r="C14" s="1">
         <v>83</v>
       </c>
+      <c r="P14" s="1">
+        <v>150000</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>56</v>
+      </c>
+      <c r="R14" s="1">
+        <v>284</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P15" s="1">
+        <v>200000</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>83</v>
+      </c>
+      <c r="R15" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -4024,8 +7555,73 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B26" s="1">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>150000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B28" s="1">
+        <v>144</v>
+      </c>
+      <c r="C28" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f>SUM(B25:B28)/4</f>
+        <v>99.75</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C25:C28)/4</f>
+        <v>171.75</v>
       </c>
     </row>
   </sheetData>
